--- a/document/confusion.matrix.20230803.xlsx
+++ b/document/confusion.matrix.20230803.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKSPACE\GIT\covid19-eng-lockdown\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAECE4D2-74D0-4A29-8A8A-FA0D89D3281F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D478D7C4-FE18-4F39-AFA9-76BBE2182FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{267188A5-E0B7-4A48-9FBA-274E7FCAF4B2}"/>
+    <workbookView xWindow="-195" yWindow="-195" windowWidth="25590" windowHeight="15420" activeTab="1" xr2:uid="{267188A5-E0B7-4A48-9FBA-274E7FCAF4B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
   <si>
     <t>G3</t>
   </si>
@@ -55,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -100,9 +101,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C061A5F-9542-48AB-A173-3719B5A4CF73}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -542,6 +544,10 @@
         <f>B8/SUM(B8:E8)</f>
         <v>0.44444444444444442</v>
       </c>
+      <c r="G8">
+        <f>SUM(B8:E8)</f>
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
@@ -563,6 +569,10 @@
         <f>C9/SUM(B9:E9)</f>
         <v>0.15789473684210525</v>
       </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G11" si="0">SUM(B9:E9)</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -584,6 +594,10 @@
         <f>D10/SUM(B10:E10)</f>
         <v>0.55223880597014929</v>
       </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -604,6 +618,28 @@
       <c r="F11" s="1">
         <f>E11/SUM(B11:E11)</f>
         <v>0.70149253731343286</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <f>SUM(B8:B11)</f>
+        <v>61</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:E12" si="1">SUM(C8:C11)</f>
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
@@ -625,4 +661,139 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CEBDB9-EAF4-4D64-882F-B6B5B65900CE}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <f>B2/SUM(B2:E2)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>62</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <f>C3/SUM(B3:E3)</f>
+        <v>0.65263157894736845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>74</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
+        <f>D4/SUM(B4:E4)</f>
+        <v>0.55639097744360899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1">
+        <f>E5/SUM(B5:E5)</f>
+        <v>0.70149253731343286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <f>SUM(B2:B5)</f>
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:E6" si="0">SUM(C2:C5)</f>
+        <v>96</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="F6" s="2">
+        <f>AVERAGE(F2:F5)</f>
+        <v>0.65262877342610259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/confusion.matrix.20230803.xlsx
+++ b/document/confusion.matrix.20230803.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKSPACE\GIT\covid19-eng-lockdown\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D478D7C4-FE18-4F39-AFA9-76BBE2182FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57BA4E0-2DB9-46CA-B8D1-046E79DC6298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="-195" windowWidth="25590" windowHeight="15420" activeTab="1" xr2:uid="{267188A5-E0B7-4A48-9FBA-274E7FCAF4B2}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{267188A5-E0B7-4A48-9FBA-274E7FCAF4B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,9 +426,9 @@
       <selection activeCell="F8" sqref="F8:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -442,7 +442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -459,7 +459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -476,7 +476,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -493,7 +493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -510,7 +510,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -549,7 +549,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -574,7 +574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -599,7 +599,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -624,7 +624,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <f>SUM(B8:B11)</f>
         <v>61</v>
@@ -642,7 +642,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15" s="1">
         <v>0.44444444444444442</v>
       </c>
@@ -668,12 +668,12 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -687,12 +687,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -705,52 +705,52 @@
       </c>
       <c r="F2" s="1">
         <f>B2/SUM(B2:E2)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
         <f>C3/SUM(B3:E3)</f>
-        <v>0.65263157894736845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0.6767676767676768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>20</v>
       </c>
       <c r="F4" s="1">
         <f>D4/SUM(B4:E4)</f>
-        <v>0.55639097744360899</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -758,39 +758,39 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1">
         <f>E5/SUM(B5:E5)</f>
-        <v>0.70149253731343286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0.69696969696969702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>SUM(B2:B5)</f>
         <v>45</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:E6" si="0">SUM(C2:C5)</f>
+        <f>SUM(C2:C5)</f>
         <v>96</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f>SUM(D2:D5)</f>
         <v>105</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>SUM(E2:E5)</f>
         <v>69</v>
       </c>
       <c r="F6" s="2">
-        <f>AVERAGE(F2:F5)</f>
-        <v>0.65262877342610259</v>
+        <f>(B2+C3+D4+E5)/SUM(B6:E6)</f>
+        <v>0.63809523809523805</v>
       </c>
     </row>
   </sheetData>
